--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H2">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N2">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O2">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P2">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q2">
-        <v>335.5114641110613</v>
+        <v>366.2789918599733</v>
       </c>
       <c r="R2">
-        <v>3019.603176999552</v>
+        <v>3296.51092673976</v>
       </c>
       <c r="S2">
-        <v>0.07418791370035771</v>
+        <v>0.04277392942277841</v>
       </c>
       <c r="T2">
-        <v>0.07418791370035772</v>
+        <v>0.04277392942277843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H3">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O3">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P3">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q3">
-        <v>21.21824083140666</v>
+        <v>22.68610286753333</v>
       </c>
       <c r="R3">
-        <v>190.96416748266</v>
+        <v>204.1749258078</v>
       </c>
       <c r="S3">
-        <v>0.004691753302214234</v>
+        <v>0.002649274963890724</v>
       </c>
       <c r="T3">
-        <v>0.004691753302214234</v>
+        <v>0.002649274963890725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H4">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N4">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O4">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P4">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q4">
-        <v>312.9933940180667</v>
+        <v>587.5486073370666</v>
       </c>
       <c r="R4">
-        <v>2816.9405461626</v>
+        <v>5287.9374660336</v>
       </c>
       <c r="S4">
-        <v>0.06920874362882569</v>
+        <v>0.0686137158319339</v>
       </c>
       <c r="T4">
-        <v>0.06920874362882569</v>
+        <v>0.0686137158319339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H5">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N5">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O5">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P5">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q5">
-        <v>15.55101687358266</v>
+        <v>16.57110069334</v>
       </c>
       <c r="R5">
-        <v>139.959151862244</v>
+        <v>149.13990624006</v>
       </c>
       <c r="S5">
-        <v>0.003438623180363993</v>
+        <v>0.001935167201141731</v>
       </c>
       <c r="T5">
-        <v>0.003438623180363994</v>
+        <v>0.001935167201141732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H6">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I6">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J6">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N6">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O6">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P6">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q6">
-        <v>390.361999926184</v>
+        <v>405.0524453173666</v>
       </c>
       <c r="R6">
-        <v>3513.257999335656</v>
+        <v>3645.4720078563</v>
       </c>
       <c r="S6">
-        <v>0.08631640185277356</v>
+        <v>0.04730187942406585</v>
       </c>
       <c r="T6">
-        <v>0.08631640185277357</v>
+        <v>0.04730187942406586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7.981712</v>
       </c>
       <c r="I7">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J7">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N7">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O7">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P7">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q7">
-        <v>130.9788580711538</v>
+        <v>133.7381536466916</v>
       </c>
       <c r="R7">
-        <v>1178.809722640384</v>
+        <v>1203.643382820224</v>
       </c>
       <c r="S7">
-        <v>0.02896189626455688</v>
+        <v>0.0156178936612428</v>
       </c>
       <c r="T7">
-        <v>0.02896189626455689</v>
+        <v>0.0156178936612428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7.981712</v>
       </c>
       <c r="I8">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J8">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O8">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P8">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q8">
         <v>8.283296553635555</v>
@@ -948,10 +948,10 @@
         <v>74.54966898271999</v>
       </c>
       <c r="S8">
-        <v>0.001831593121575619</v>
+        <v>0.0009673204034278918</v>
       </c>
       <c r="T8">
-        <v>0.001831593121575619</v>
+        <v>0.0009673204034278921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7.981712</v>
       </c>
       <c r="I9">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J9">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N9">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O9">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P9">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q9">
-        <v>122.1881268376889</v>
+        <v>214.5295462454044</v>
       </c>
       <c r="R9">
-        <v>1099.6931415392</v>
+        <v>1930.76591620864</v>
       </c>
       <c r="S9">
-        <v>0.02701809976317877</v>
+        <v>0.02505268353940882</v>
       </c>
       <c r="T9">
-        <v>0.02701809976317877</v>
+        <v>0.02505268353940882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7.981712</v>
       </c>
       <c r="I10">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J10">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N10">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O10">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P10">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q10">
-        <v>6.070893694627555</v>
+        <v>6.050547423882666</v>
       </c>
       <c r="R10">
-        <v>54.63804325164799</v>
+        <v>54.454926814944</v>
       </c>
       <c r="S10">
-        <v>0.001342389115359669</v>
+        <v>0.0007065807601034107</v>
       </c>
       <c r="T10">
-        <v>0.001342389115359669</v>
+        <v>0.0007065807601034108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7.981712</v>
       </c>
       <c r="I11">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J11">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N11">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O11">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P11">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q11">
-        <v>152.3917196694613</v>
+        <v>147.8953676587911</v>
       </c>
       <c r="R11">
-        <v>1371.525477025152</v>
+        <v>1331.05830892912</v>
       </c>
       <c r="S11">
-        <v>0.03369668388959939</v>
+        <v>0.01727116804070331</v>
       </c>
       <c r="T11">
-        <v>0.03369668388959939</v>
+        <v>0.01727116804070331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H12">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N12">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O12">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P12">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q12">
-        <v>259.2161191242809</v>
+        <v>955.4957677204338</v>
       </c>
       <c r="R12">
-        <v>2332.945072118528</v>
+        <v>8599.461909483905</v>
       </c>
       <c r="S12">
-        <v>0.05731757371178241</v>
+        <v>0.1115824533771291</v>
       </c>
       <c r="T12">
-        <v>0.05731757371178241</v>
+        <v>0.1115824533771291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H13">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P13">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q13">
-        <v>16.39321046013778</v>
+        <v>59.18023080145777</v>
       </c>
       <c r="R13">
-        <v>147.53889414124</v>
+        <v>532.62207721312</v>
       </c>
       <c r="S13">
-        <v>0.003624848069232957</v>
+        <v>0.006911046147284971</v>
       </c>
       <c r="T13">
-        <v>0.003624848069232957</v>
+        <v>0.006911046147284975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H14">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I14">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J14">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N14">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O14">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P14">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q14">
-        <v>241.8186607240445</v>
+        <v>1532.712004010382</v>
       </c>
       <c r="R14">
-        <v>2176.3679465164</v>
+        <v>13794.40803609344</v>
       </c>
       <c r="S14">
-        <v>0.05347066747916838</v>
+        <v>0.1789895586205192</v>
       </c>
       <c r="T14">
-        <v>0.05347066747916838</v>
+        <v>0.1789895586205192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H15">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I15">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J15">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N15">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O15">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P15">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q15">
-        <v>12.01471387300178</v>
+        <v>43.22829572766933</v>
       </c>
       <c r="R15">
-        <v>108.132424857016</v>
+        <v>389.054661549024</v>
       </c>
       <c r="S15">
-        <v>0.002656679879199872</v>
+        <v>0.005048184885332442</v>
       </c>
       <c r="T15">
-        <v>0.002656679879199872</v>
+        <v>0.005048184885332443</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H16">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I16">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J16">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N16">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O16">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P16">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q16">
-        <v>301.5936368748427</v>
+        <v>1056.642356800836</v>
       </c>
       <c r="R16">
-        <v>2714.342731873584</v>
+        <v>9509.781211207521</v>
       </c>
       <c r="S16">
-        <v>0.0666880422829349</v>
+        <v>0.1233943158066671</v>
       </c>
       <c r="T16">
-        <v>0.0666880422829349</v>
+        <v>0.1233943158066671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H17">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N17">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O17">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P17">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q17">
-        <v>12.13498416024178</v>
+        <v>5.763313720280889</v>
       </c>
       <c r="R17">
-        <v>109.214857442176</v>
+        <v>51.869823482528</v>
       </c>
       <c r="S17">
-        <v>0.002683273908450463</v>
+        <v>0.0006730377111195841</v>
       </c>
       <c r="T17">
-        <v>0.002683273908450463</v>
+        <v>0.0006730377111195844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H18">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I18">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J18">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O18">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P18">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q18">
-        <v>0.7674343321755556</v>
+        <v>0.3569604886488889</v>
       </c>
       <c r="R18">
-        <v>6.90690898958</v>
+        <v>3.21264439784</v>
       </c>
       <c r="S18">
-        <v>0.000169694207489987</v>
+        <v>4.168571795683324E-05</v>
       </c>
       <c r="T18">
-        <v>0.000169694207489987</v>
+        <v>4.168571795683326E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H19">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I19">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J19">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N19">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O19">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P19">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q19">
-        <v>11.32053680708889</v>
+        <v>9.244939036231111</v>
       </c>
       <c r="R19">
-        <v>101.8848312638</v>
+        <v>83.20445132607999</v>
       </c>
       <c r="S19">
-        <v>0.002503184235183174</v>
+        <v>0.001079620667965621</v>
       </c>
       <c r="T19">
-        <v>0.002503184235183174</v>
+        <v>0.001079620667965621</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H20">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I20">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J20">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N20">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O20">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P20">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q20">
-        <v>0.5624587044635556</v>
+        <v>0.2607423688186666</v>
       </c>
       <c r="R20">
-        <v>5.062128340172</v>
+        <v>2.346681319368</v>
       </c>
       <c r="S20">
-        <v>0.0001243702296054615</v>
+        <v>3.044940040034138E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001243702296054615</v>
+        <v>3.044940040034138E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H21">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I21">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J21">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N21">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O21">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P21">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q21">
-        <v>14.11885193972534</v>
+        <v>6.373404883737778</v>
       </c>
       <c r="R21">
-        <v>127.069667457528</v>
+        <v>57.36064395364</v>
       </c>
       <c r="S21">
-        <v>0.00312194449756788</v>
+        <v>0.0007442839385776474</v>
       </c>
       <c r="T21">
-        <v>0.003121944497567881</v>
+        <v>0.0007442839385776474</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H22">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I22">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J22">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N22">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O22">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P22">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q22">
-        <v>672.7985746393884</v>
+        <v>782.0635959305636</v>
       </c>
       <c r="R22">
-        <v>6055.187171754495</v>
+        <v>7038.572363375071</v>
       </c>
       <c r="S22">
-        <v>0.1487684563188225</v>
+        <v>0.09132910650045342</v>
       </c>
       <c r="T22">
-        <v>0.1487684563188226</v>
+        <v>0.09132910650045346</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H23">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I23">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J23">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O23">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P23">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q23">
-        <v>42.54877616640889</v>
+        <v>48.43841874779555</v>
       </c>
       <c r="R23">
-        <v>382.93898549768</v>
+        <v>435.94576873016</v>
       </c>
       <c r="S23">
-        <v>0.009408337037462534</v>
+        <v>0.005656621184709582</v>
       </c>
       <c r="T23">
-        <v>0.009408337037462536</v>
+        <v>0.005656621184709584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H24">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I24">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J24">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N24">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O24">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P24">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q24">
-        <v>627.6432607894222</v>
+        <v>1254.509231623324</v>
       </c>
       <c r="R24">
-        <v>5648.7893471048</v>
+        <v>11290.58308460992</v>
       </c>
       <c r="S24">
-        <v>0.1387837646305977</v>
+        <v>0.1465011385479463</v>
       </c>
       <c r="T24">
-        <v>0.1387837646305977</v>
+        <v>0.1465011385479464</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H25">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I25">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J25">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N25">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O25">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P25">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q25">
-        <v>31.18433527885689</v>
+        <v>35.38192166291466</v>
       </c>
       <c r="R25">
-        <v>280.659017509712</v>
+        <v>318.437294966232</v>
       </c>
       <c r="S25">
-        <v>0.006895444781895853</v>
+        <v>0.004131888133596155</v>
       </c>
       <c r="T25">
-        <v>0.006895444781895853</v>
+        <v>0.004131888133596156</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H26">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I26">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J26">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N26">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O26">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P26">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q26">
-        <v>782.7899348821653</v>
+        <v>864.8510533371511</v>
       </c>
       <c r="R26">
-        <v>7045.109413939488</v>
+        <v>7783.65948003436</v>
       </c>
       <c r="S26">
-        <v>0.1730896209118004</v>
+        <v>0.1009969961116447</v>
       </c>
       <c r="T26">
-        <v>0.1730896209118004</v>
+        <v>0.1009969961116447</v>
       </c>
     </row>
   </sheetData>
